--- a/excel-data/excel-files/RigScheduleEarlyCase.xlsx
+++ b/excel-data/excel-files/RigScheduleEarlyCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nealasmothers/Downloads/logisticsdashboard/excel-data/excel-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDEF701-EC60-784C-B563-8CBC40FFDC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C258D9-2444-0145-AC40-CBE7DB3E8C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1132,8 +1132,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10262,15 +10262,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="58f67919-5e96-4367-bb31-7696fc7d7dd0" xsi:nil="true"/>
@@ -10297,6 +10288,15 @@
     <TaxCatchAll xmlns="ac967b4e-f77b-4de1-a045-21b69ae9b9ab" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10529,20 +10529,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54704F46-7750-4C52-BA6F-772295D2A67A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD340135-E39E-46C6-94A3-A877E22F20D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="58f67919-5e96-4367-bb31-7696fc7d7dd0"/>
     <ds:schemaRef ds:uri="ac967b4e-f77b-4de1-a045-21b69ae9b9ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54704F46-7750-4C52-BA6F-772295D2A67A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
